--- a/Runner/ManualAnalysis/Day20.xlsx
+++ b/Runner/ManualAnalysis/Day20.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E659F5E-F597-452D-8204-512A6EC6BA49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="66">
   <si>
     <t>^ENW$</t>
   </si>
@@ -167,36 +167,12 @@
     <t>^ESSWWN(E|NNENN(EESS(WNSE|)SSS|WWWSSSSE(SW|NNNE)))$</t>
   </si>
   <si>
-    <t>^ESSWWN(</t>
-  </si>
-  <si>
-    <t>EESS(</t>
-  </si>
-  <si>
-    <t>WNSE|</t>
-  </si>
-  <si>
     <t>)$</t>
   </si>
   <si>
     <t>NNNE</t>
   </si>
   <si>
-    <t>SW|</t>
-  </si>
-  <si>
-    <t>E|</t>
-  </si>
-  <si>
-    <t>NNENN(</t>
-  </si>
-  <si>
-    <t>)SSS|</t>
-  </si>
-  <si>
-    <t>WWWSSSSE(</t>
-  </si>
-  <si>
     <t>ESSWWNE</t>
   </si>
   <si>
@@ -210,13 +186,52 @@
   </si>
   <si>
     <t>ESSWWNNNENNWWWSSSSENNNE</t>
+  </si>
+  <si>
+    <t>RoutesStack</t>
+  </si>
+  <si>
+    <t>WNSE</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>WWWSSSSE</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>EESS</t>
+  </si>
+  <si>
+    <t>NNENN</t>
+  </si>
+  <si>
+    <t>^ESSWWN</t>
+  </si>
+  <si>
+    <t>{1}</t>
+  </si>
+  <si>
+    <t>{5}</t>
+  </si>
+  <si>
+    <t>{2}</t>
+  </si>
+  <si>
+    <t>(nnn|eee|www|sss)(n|s)eee</t>
+  </si>
+  <si>
+    <t>nnn(eee|www)sss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -359,7 +374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -536,14 +551,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -551,19 +566,19 @@
       <selection pane="bottomLeft" activeCell="Q31" sqref="Q31:Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" customWidth="1"/>
     <col min="17" max="17" width="76.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -586,7 +601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="D4" t="s">
         <v>18</v>
       </c>
@@ -600,7 +615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -617,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -634,7 +649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -651,7 +666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -668,12 +683,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -690,7 +705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -704,7 +719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -724,7 +739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -741,7 +756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -758,7 +773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -772,7 +787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -786,7 +801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -807,7 +822,7 @@
         <v>| : routestack.push(currentRoutes), currentRoutes=clone of BranchRoutes</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -821,7 +836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -836,12 +851,12 @@
         <v>) : currentRoutes+=RouteStack.Pop(), BranchRoutes = currentRoutes</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -852,7 +867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>6</v>
       </c>
@@ -863,7 +878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>12</v>
       </c>
@@ -877,7 +892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>13</v>
       </c>
@@ -891,7 +906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -908,7 +923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -922,7 +937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="B33" t="s">
         <v>12</v>
       </c>
@@ -940,7 +955,7 @@
         <v>| : routestack.push(currentRoutes), currentRoutes=clone of BranchRoutes</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="B34" t="s">
         <v>7</v>
       </c>
@@ -954,7 +969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -969,7 +984,7 @@
         <v>) : currentRoutes+=RouteStack.Pop(), BranchRoutes = currentRoutes</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="B36" t="s">
         <v>14</v>
       </c>
@@ -981,12 +996,12 @@
         <v>) : currentRoutes+=RouteStack.Pop(), BranchRoutes = currentRoutes</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="B40" t="s">
         <v>11</v>
       </c>
@@ -997,7 +1012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="B41" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="B42" t="s">
         <v>12</v>
       </c>
@@ -1022,7 +1037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="B43" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -1054,7 +1069,7 @@
         <v>( : BranchRoutes = clone of currentRoutes</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="B45" t="s">
         <v>5</v>
       </c>
@@ -1068,7 +1083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="B46" t="s">
         <v>12</v>
       </c>
@@ -1086,7 +1101,7 @@
         <v>| : routestack.push(currentRoutes), currentRoutes=clone of BranchRoutes</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="B47" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="B48" t="s">
         <v>11</v>
       </c>
@@ -1118,7 +1133,7 @@
         <v>( : BranchRoutes = clone of currentRoutes</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17">
       <c r="B49" t="s">
         <v>6</v>
       </c>
@@ -1132,7 +1147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17">
       <c r="B50" t="s">
         <v>12</v>
       </c>
@@ -1150,7 +1165,7 @@
         <v>| : routestack.push(currentRoutes), currentRoutes=clone of BranchRoutes</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17">
       <c r="B51" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17">
       <c r="B52" t="s">
         <v>14</v>
       </c>
@@ -1182,7 +1197,7 @@
         <v>) : currentRoutes+=RouteStack.Pop(), BranchRoutes = currentRoutes</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17">
       <c r="B53" t="s">
         <v>14</v>
       </c>
@@ -1200,7 +1215,7 @@
         <v>) : currentRoutes+=RouteStack.Pop(), BranchRoutes = currentRoutes</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17">
       <c r="B54" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1230,7 @@
         <v>) : currentRoutes+=RouteStack.Pop(), BranchRoutes = currentRoutes</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17">
       <c r="L55" t="s">
         <v>32</v>
       </c>
@@ -1226,118 +1241,239 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C70177A-273E-4170-A371-28DD328475A2}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="D13" s="3"/>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Runner/ManualAnalysis/Day20.xlsx
+++ b/Runner/ManualAnalysis/Day20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="88">
   <si>
     <t>^ENW$</t>
   </si>
@@ -221,10 +221,76 @@
     <t>{2}</t>
   </si>
   <si>
-    <t>(nnn|eee|www|sss)(n|s)eee</t>
-  </si>
-  <si>
-    <t>nnn(eee|www)sss</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ESSWWN</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>^A(B|C(D(E|)F|G(H|I)))$</t>
+  </si>
+  <si>
+    <t>currentRoutes</t>
+  </si>
+  <si>
+    <t>wholeTermRoutes</t>
+  </si>
+  <si>
+    <t>| = copy currentRoutes to wholeTermRoutes</t>
+  </si>
+  <si>
+    <t>)=return currentRoutes union wholeTermRoutes</t>
+  </si>
+  <si>
+    <t>GH,GI</t>
+  </si>
+  <si>
+    <t>{empty}</t>
+  </si>
+  <si>
+    <t>( = call recursive, add returned routes to each of current routes to current routes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unless first is empty, in which case add returned routes to each of current routes </t>
+  </si>
+  <si>
+    <t>(except empty) to each of wholeTermRoutes</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>DE,DF</t>
+  </si>
+  <si>
+    <t>CGH,CGI,CDE,CDF</t>
+  </si>
+  <si>
+    <t>ACGH,ACGI,ACDE,ACDF,AB</t>
   </si>
 </sst>
 </file>
@@ -246,7 +312,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +325,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -268,17 +340,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1244,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1455,23 +1544,479 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:A11"/>
+  <dimension ref="A3:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>65</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Runner/ManualAnalysis/Day20.xlsx
+++ b/Runner/ManualAnalysis/Day20.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="113">
   <si>
     <t>^ENW$</t>
   </si>
@@ -291,6 +292,81 @@
   </si>
   <si>
     <t>ACGH,ACGI,ACDE,ACDF,AB</t>
+  </si>
+  <si>
+    <t>wholeTermWalks</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>walksOnEntry</t>
+  </si>
+  <si>
+    <t>currentWalks</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>( = call recursive with walksOnEntry set to currentWalks</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>ACDE</t>
+  </si>
+  <si>
+    <t>| = add currentWalks to wholeTermWalks,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> currentWalks = walks on entry</t>
+  </si>
+  <si>
+    <t>) = add currentWalks to wholeTermWalks,</t>
+  </si>
+  <si>
+    <t>else return wholeTermWalks</t>
+  </si>
+  <si>
+    <t>if currentWalks=walksOnEntry (or bool lastWalkEmpty = true), return empty</t>
+  </si>
+  <si>
+    <t>if not empty, receiver adds returned to current walks</t>
+  </si>
+  <si>
+    <t>ACDF</t>
+  </si>
+  <si>
+    <t>ACG</t>
+  </si>
+  <si>
+    <t>currentwalks set to walksOnEntry at start</t>
+  </si>
+  <si>
+    <t>ACGH</t>
+  </si>
+  <si>
+    <t>ACGI</t>
+  </si>
+  <si>
+    <t>ACGH,ACGI</t>
+  </si>
+  <si>
+    <t>ACG,ACGH,ACGI</t>
+  </si>
+  <si>
+    <t>ACDF,ACG,ACGH,ACGI</t>
+  </si>
+  <si>
+    <t>AC,ACDF,ACG,ACGH,ACGI</t>
+  </si>
+  <si>
+    <t>AB,AC,ACDF,ACG,ACGH,ACGI</t>
+  </si>
+  <si>
+    <t>A,AB,AC,ACDF,ACG,ACGH,ACGI</t>
   </si>
 </sst>
 </file>
@@ -640,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1546,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -2021,4 +2097,623 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="B37" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>